--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_13-54.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_13-54.xlsx
@@ -41,6 +41,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -50,6 +59,12 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -92,9 +107,6 @@
     <t>EXEEDOGAST 40 MG 20 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
   </si>
   <si>
@@ -119,12 +131,15 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">MIRFENACIN MR5/25  TAB</t>
   </si>
   <si>
@@ -191,34 +206,37 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>فازلين مستورد 50مل</t>
+  </si>
+  <si>
+    <t>قصافات كبار لوكس</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>كريم جلايسوليد 40ملل وسط</t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>فازلين مستورد 50مل</t>
-  </si>
-  <si>
-    <t>قصافات كبار لوكس</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>كريم جلايسوليد 40ملل وسط</t>
-  </si>
-  <si>
-    <t>ماسك جلسات اطفال</t>
   </si>
   <si>
     <t>مرطب شفاه لونا جوز هند ابيض</t>
@@ -849,7 +867,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -875,7 +893,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -901,11 +919,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -921,17 +939,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -939,7 +957,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -947,17 +965,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -965,7 +983,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -973,17 +991,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -991,7 +1009,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -999,13 +1017,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1017,7 +1035,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1025,17 +1043,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1043,7 +1061,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1051,17 +1069,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1069,7 +1087,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1077,17 +1095,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1095,7 +1113,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1103,17 +1121,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1121,7 +1139,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1129,13 +1147,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1155,17 +1173,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>15.300000000000001</v>
+        <v>37</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1173,7 +1191,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1181,13 +1199,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>85.560000000000002</v>
+        <v>15</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1199,7 +1217,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1213,11 +1231,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>39</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1225,7 +1243,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1233,17 +1251,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>65</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1251,7 +1269,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1259,17 +1277,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1277,7 +1295,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1285,17 +1303,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>277.5</v>
+        <v>65</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1311,13 +1329,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1329,7 +1347,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1337,17 +1355,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1363,17 +1381,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>240</v>
+        <v>277.5</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1381,7 +1399,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1389,17 +1407,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1407,7 +1425,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1415,13 +1433,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1433,7 +1451,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1441,17 +1459,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>56.399999999999999</v>
+        <v>240</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1459,7 +1477,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1467,13 +1485,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1485,7 +1503,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1493,17 +1511,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>65.75</v>
+        <v>75</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1511,7 +1529,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1519,13 +1537,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>59</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1537,7 +1555,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1545,17 +1563,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1563,7 +1581,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1571,17 +1589,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>18</v>
+        <v>65.75</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1589,7 +1607,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1597,17 +1615,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1623,17 +1641,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1655,11 +1673,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>2.5</v>
+        <v>18</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1681,11 +1699,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1701,17 +1719,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1719,7 +1737,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1727,17 +1745,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>70</v>
+        <v>2.5</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1759,11 +1777,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1785,11 +1803,11 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1811,11 +1829,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1831,17 +1849,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>19.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1849,7 +1867,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1857,7 +1875,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -1867,7 +1885,7 @@
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1875,7 +1893,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1883,51 +1901,129 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="K46" s="10">
-        <v>2138.21</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="11">
-        <v>72</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c t="s" r="F47" s="12">
-        <v>73</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c t="s" r="I47" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
         <v>74</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
+        <v>75</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>19.199999999999999</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c t="s" r="N46" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
+        <v>76</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
+        <v>20</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>20</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c t="s" r="N47" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="A48" s="6">
+        <v>45</v>
+      </c>
+      <c t="s" r="B48" s="7">
+        <v>77</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c t="s" r="H48" s="8">
+        <v>33</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="9">
+        <v>30</v>
+      </c>
+      <c r="M48" s="9"/>
+      <c t="s" r="N48" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="K49" s="10">
+        <v>2283.71</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="11">
+        <v>78</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c t="s" r="F50" s="12">
+        <v>79</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
+      <c t="s" r="I50" s="14">
+        <v>80</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="146">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2061,10 +2157,19 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="I50:N50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
